--- a/www/IndicatorsPerCountry/Japan_CopperProduction_TerritorialRef_1952_2012_CCode_392.xlsx
+++ b/www/IndicatorsPerCountry/Japan_CopperProduction_TerritorialRef_1952_2012_CCode_392.xlsx
@@ -66,13 +66,13 @@
     <t>Klein Goldewijk, Kees and Jonathan Fink-Jensen (2015). Copper Production. http://hdl.handle.net/10622/GI7D06, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_GI7D06.xml</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_GI7D06.xml</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_GI7D06.ris</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_GI7D06.ris</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_GI7D06.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_GI7D06.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Japan_CopperProduction_TerritorialRef_1952_2012_CCode_392.xlsx
+++ b/www/IndicatorsPerCountry/Japan_CopperProduction_TerritorialRef_1952_2012_CCode_392.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="101">
   <si>
     <t>Country Code</t>
   </si>
@@ -37,6 +37,249 @@
   </si>
   <si>
     <t>0</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>3.9</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>4.6</t>
+  </si>
+  <si>
+    <t>4.7</t>
+  </si>
+  <si>
+    <t>4.8</t>
+  </si>
+  <si>
+    <t>5.6</t>
+  </si>
+  <si>
+    <t>6.8</t>
+  </si>
+  <si>
+    <t>8.9</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>6.043</t>
+  </si>
+  <si>
+    <t>2.376</t>
+  </si>
+  <si>
+    <t>1.145</t>
+  </si>
+  <si>
+    <t>0.932</t>
+  </si>
+  <si>
+    <t>1.07</t>
+  </si>
+  <si>
+    <t>1.038</t>
+  </si>
+  <si>
+    <t>1.211</t>
+  </si>
+  <si>
+    <t>0.744</t>
+  </si>
+  <si>
+    <t>0.75</t>
   </si>
   <si>
     <t>Description</t>
@@ -2619,7 +2862,7 @@
         <v>1874.0</v>
       </c>
       <c r="E147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="148">
@@ -2636,7 +2879,7 @@
         <v>1875.0</v>
       </c>
       <c r="E148" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="149">
@@ -2653,7 +2896,7 @@
         <v>1876.0</v>
       </c>
       <c r="E149" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="150">
@@ -2670,7 +2913,7 @@
         <v>1877.0</v>
       </c>
       <c r="E150" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="151">
@@ -2687,7 +2930,7 @@
         <v>1878.0</v>
       </c>
       <c r="E151" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="152">
@@ -2704,7 +2947,7 @@
         <v>1879.0</v>
       </c>
       <c r="E152" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="153">
@@ -2721,7 +2964,7 @@
         <v>1880.0</v>
       </c>
       <c r="E153" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="154">
@@ -2738,7 +2981,7 @@
         <v>1881.0</v>
       </c>
       <c r="E154" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="155">
@@ -2755,7 +2998,7 @@
         <v>1882.0</v>
       </c>
       <c r="E155" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="156">
@@ -2772,7 +3015,7 @@
         <v>1883.0</v>
       </c>
       <c r="E156" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="157">
@@ -2789,7 +3032,7 @@
         <v>1884.0</v>
       </c>
       <c r="E157" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="158">
@@ -2806,7 +3049,7 @@
         <v>1885.0</v>
       </c>
       <c r="E158" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="159">
@@ -2823,7 +3066,7 @@
         <v>1886.0</v>
       </c>
       <c r="E159" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="160">
@@ -2840,7 +3083,7 @@
         <v>1887.0</v>
       </c>
       <c r="E160" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="161">
@@ -2857,7 +3100,7 @@
         <v>1888.0</v>
       </c>
       <c r="E161" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="162">
@@ -2874,7 +3117,7 @@
         <v>1889.0</v>
       </c>
       <c r="E162" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="163">
@@ -2891,7 +3134,7 @@
         <v>1890.0</v>
       </c>
       <c r="E163" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="164">
@@ -2908,7 +3151,7 @@
         <v>1891.0</v>
       </c>
       <c r="E164" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="165">
@@ -2925,7 +3168,7 @@
         <v>1892.0</v>
       </c>
       <c r="E165" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="166">
@@ -2942,7 +3185,7 @@
         <v>1893.0</v>
       </c>
       <c r="E166" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="167">
@@ -2959,7 +3202,7 @@
         <v>1894.0</v>
       </c>
       <c r="E167" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="168">
@@ -2976,7 +3219,7 @@
         <v>1895.0</v>
       </c>
       <c r="E168" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="169">
@@ -2993,7 +3236,7 @@
         <v>1896.0</v>
       </c>
       <c r="E169" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="170">
@@ -3010,7 +3253,7 @@
         <v>1897.0</v>
       </c>
       <c r="E170" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="171">
@@ -3027,7 +3270,7 @@
         <v>1898.0</v>
       </c>
       <c r="E171" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="172">
@@ -3044,7 +3287,7 @@
         <v>1899.0</v>
       </c>
       <c r="E172" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="173">
@@ -3061,7 +3304,7 @@
         <v>1900.0</v>
       </c>
       <c r="E173" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="174">
@@ -3078,7 +3321,7 @@
         <v>1901.0</v>
       </c>
       <c r="E174" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="175">
@@ -3095,7 +3338,7 @@
         <v>1902.0</v>
       </c>
       <c r="E175" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="176">
@@ -3112,7 +3355,7 @@
         <v>1903.0</v>
       </c>
       <c r="E176" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="177">
@@ -3129,7 +3372,7 @@
         <v>1904.0</v>
       </c>
       <c r="E177" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="178">
@@ -3146,7 +3389,7 @@
         <v>1905.0</v>
       </c>
       <c r="E178" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="179">
@@ -3163,7 +3406,7 @@
         <v>1906.0</v>
       </c>
       <c r="E179" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
     </row>
     <row r="180">
@@ -3180,7 +3423,7 @@
         <v>1907.0</v>
       </c>
       <c r="E180" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
     </row>
     <row r="181">
@@ -3197,7 +3440,7 @@
         <v>1908.0</v>
       </c>
       <c r="E181" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
     </row>
     <row r="182">
@@ -3214,7 +3457,7 @@
         <v>1909.0</v>
       </c>
       <c r="E182" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
     </row>
     <row r="183">
@@ -3231,7 +3474,7 @@
         <v>1910.0</v>
       </c>
       <c r="E183" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
     </row>
     <row r="184">
@@ -3248,7 +3491,7 @@
         <v>1911.0</v>
       </c>
       <c r="E184" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
     </row>
     <row r="185">
@@ -3265,7 +3508,7 @@
         <v>1912.0</v>
       </c>
       <c r="E185" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
     </row>
     <row r="186">
@@ -3282,7 +3525,7 @@
         <v>1913.0</v>
       </c>
       <c r="E186" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
     </row>
     <row r="187">
@@ -3299,7 +3542,7 @@
         <v>1914.0</v>
       </c>
       <c r="E187" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
     </row>
     <row r="188">
@@ -3316,7 +3559,7 @@
         <v>1915.0</v>
       </c>
       <c r="E188" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
     </row>
     <row r="189">
@@ -3333,7 +3576,7 @@
         <v>1916.0</v>
       </c>
       <c r="E189" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
     </row>
     <row r="190">
@@ -3350,7 +3593,7 @@
         <v>1917.0</v>
       </c>
       <c r="E190" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
     </row>
     <row r="191">
@@ -3367,7 +3610,7 @@
         <v>1918.0</v>
       </c>
       <c r="E191" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
     </row>
     <row r="192">
@@ -3384,7 +3627,7 @@
         <v>1919.0</v>
       </c>
       <c r="E192" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
     </row>
     <row r="193">
@@ -3401,7 +3644,7 @@
         <v>1920.0</v>
       </c>
       <c r="E193" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
     </row>
     <row r="194">
@@ -3418,7 +3661,7 @@
         <v>1921.0</v>
       </c>
       <c r="E194" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
     </row>
     <row r="195">
@@ -3435,7 +3678,7 @@
         <v>1922.0</v>
       </c>
       <c r="E195" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
     </row>
     <row r="196">
@@ -3452,7 +3695,7 @@
         <v>1923.0</v>
       </c>
       <c r="E196" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
     </row>
     <row r="197">
@@ -3469,7 +3712,7 @@
         <v>1924.0</v>
       </c>
       <c r="E197" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
     </row>
     <row r="198">
@@ -3486,7 +3729,7 @@
         <v>1925.0</v>
       </c>
       <c r="E198" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
     </row>
     <row r="199">
@@ -3503,7 +3746,7 @@
         <v>1926.0</v>
       </c>
       <c r="E199" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
     </row>
     <row r="200">
@@ -3520,7 +3763,7 @@
         <v>1927.0</v>
       </c>
       <c r="E200" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
     </row>
     <row r="201">
@@ -3537,7 +3780,7 @@
         <v>1928.0</v>
       </c>
       <c r="E201" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
     </row>
     <row r="202">
@@ -3554,7 +3797,7 @@
         <v>1929.0</v>
       </c>
       <c r="E202" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
     </row>
     <row r="203">
@@ -3571,7 +3814,7 @@
         <v>1930.0</v>
       </c>
       <c r="E203" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
     </row>
     <row r="204">
@@ -3588,7 +3831,7 @@
         <v>1931.0</v>
       </c>
       <c r="E204" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
     </row>
     <row r="205">
@@ -3605,7 +3848,7 @@
         <v>1932.0</v>
       </c>
       <c r="E205" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
     </row>
     <row r="206">
@@ -3622,7 +3865,7 @@
         <v>1933.0</v>
       </c>
       <c r="E206" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
     </row>
     <row r="207">
@@ -3639,7 +3882,7 @@
         <v>1934.0</v>
       </c>
       <c r="E207" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
     </row>
     <row r="208">
@@ -3656,7 +3899,7 @@
         <v>1935.0</v>
       </c>
       <c r="E208" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
     </row>
     <row r="209">
@@ -3673,7 +3916,7 @@
         <v>1936.0</v>
       </c>
       <c r="E209" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
     </row>
     <row r="210">
@@ -3690,7 +3933,7 @@
         <v>1937.0</v>
       </c>
       <c r="E210" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
     </row>
     <row r="211">
@@ -3707,7 +3950,7 @@
         <v>1938.0</v>
       </c>
       <c r="E211" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
     </row>
     <row r="212">
@@ -3724,7 +3967,7 @@
         <v>1939.0</v>
       </c>
       <c r="E212" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
     </row>
     <row r="213">
@@ -3741,7 +3984,7 @@
         <v>1940.0</v>
       </c>
       <c r="E213" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
     </row>
     <row r="214">
@@ -3758,7 +4001,7 @@
         <v>1941.0</v>
       </c>
       <c r="E214" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
     </row>
     <row r="215">
@@ -3775,7 +4018,7 @@
         <v>1942.0</v>
       </c>
       <c r="E215" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
     </row>
     <row r="216">
@@ -3792,7 +4035,7 @@
         <v>1943.0</v>
       </c>
       <c r="E216" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
     </row>
     <row r="217">
@@ -3809,7 +4052,7 @@
         <v>1944.0</v>
       </c>
       <c r="E217" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
     </row>
     <row r="218">
@@ -3826,7 +4069,7 @@
         <v>1945.0</v>
       </c>
       <c r="E218" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="219">
@@ -3843,7 +4086,7 @@
         <v>1946.0</v>
       </c>
       <c r="E219" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
     </row>
     <row r="220">
@@ -3860,7 +4103,7 @@
         <v>1947.0</v>
       </c>
       <c r="E220" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
     </row>
     <row r="221">
@@ -3877,7 +4120,7 @@
         <v>1948.0</v>
       </c>
       <c r="E221" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
     </row>
     <row r="222">
@@ -3894,7 +4137,7 @@
         <v>1949.0</v>
       </c>
       <c r="E222" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="223">
@@ -3911,7 +4154,7 @@
         <v>1950.0</v>
       </c>
       <c r="E223" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
     </row>
     <row r="224">
@@ -3928,7 +4171,7 @@
         <v>1951.0</v>
       </c>
       <c r="E224" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
     </row>
     <row r="225">
@@ -3945,7 +4188,7 @@
         <v>1952.0</v>
       </c>
       <c r="E225" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
     </row>
     <row r="226">
@@ -3962,7 +4205,7 @@
         <v>1953.0</v>
       </c>
       <c r="E226" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
     </row>
     <row r="227">
@@ -3979,7 +4222,7 @@
         <v>1954.0</v>
       </c>
       <c r="E227" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
     </row>
     <row r="228">
@@ -3996,7 +4239,7 @@
         <v>1955.0</v>
       </c>
       <c r="E228" t="s">
-        <v>7</v>
+        <v>65</v>
       </c>
     </row>
     <row r="229">
@@ -4013,7 +4256,7 @@
         <v>1956.0</v>
       </c>
       <c r="E229" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
     </row>
     <row r="230">
@@ -4030,7 +4273,7 @@
         <v>1957.0</v>
       </c>
       <c r="E230" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
     </row>
     <row r="231">
@@ -4047,7 +4290,7 @@
         <v>1958.0</v>
       </c>
       <c r="E231" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
     </row>
     <row r="232">
@@ -4064,7 +4307,7 @@
         <v>1959.0</v>
       </c>
       <c r="E232" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
     </row>
     <row r="233">
@@ -4081,7 +4324,7 @@
         <v>1960.0</v>
       </c>
       <c r="E233" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
     </row>
     <row r="234">
@@ -4098,7 +4341,7 @@
         <v>1961.0</v>
       </c>
       <c r="E234" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
     </row>
     <row r="235">
@@ -4115,7 +4358,7 @@
         <v>1962.0</v>
       </c>
       <c r="E235" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
     </row>
     <row r="236">
@@ -4132,7 +4375,7 @@
         <v>1963.0</v>
       </c>
       <c r="E236" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
     </row>
     <row r="237">
@@ -4149,7 +4392,7 @@
         <v>1964.0</v>
       </c>
       <c r="E237" t="s">
-        <v>7</v>
+        <v>72</v>
       </c>
     </row>
     <row r="238">
@@ -4166,7 +4409,7 @@
         <v>1965.0</v>
       </c>
       <c r="E238" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
     </row>
     <row r="239">
@@ -4183,7 +4426,7 @@
         <v>1966.0</v>
       </c>
       <c r="E239" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
     </row>
     <row r="240">
@@ -4200,7 +4443,7 @@
         <v>1967.0</v>
       </c>
       <c r="E240" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
     </row>
     <row r="241">
@@ -4217,7 +4460,7 @@
         <v>1968.0</v>
       </c>
       <c r="E241" t="s">
-        <v>7</v>
+        <v>75</v>
       </c>
     </row>
     <row r="242">
@@ -4234,7 +4477,7 @@
         <v>1969.0</v>
       </c>
       <c r="E242" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
     </row>
     <row r="243">
@@ -4251,7 +4494,7 @@
         <v>1970.0</v>
       </c>
       <c r="E243" t="s">
-        <v>7</v>
+        <v>75</v>
       </c>
     </row>
     <row r="244">
@@ -4268,7 +4511,7 @@
         <v>1971.0</v>
       </c>
       <c r="E244" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
     </row>
     <row r="245">
@@ -4285,7 +4528,7 @@
         <v>1972.0</v>
       </c>
       <c r="E245" t="s">
-        <v>7</v>
+        <v>76</v>
       </c>
     </row>
     <row r="246">
@@ -4302,7 +4545,7 @@
         <v>1973.0</v>
       </c>
       <c r="E246" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
     </row>
     <row r="247">
@@ -4319,7 +4562,7 @@
         <v>1974.0</v>
       </c>
       <c r="E247" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
     </row>
     <row r="248">
@@ -4336,7 +4579,7 @@
         <v>1975.0</v>
       </c>
       <c r="E248" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
     </row>
     <row r="249">
@@ -4353,7 +4596,7 @@
         <v>1976.0</v>
       </c>
       <c r="E249" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
     </row>
     <row r="250">
@@ -4370,7 +4613,7 @@
         <v>1977.0</v>
       </c>
       <c r="E250" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
     </row>
     <row r="251">
@@ -4387,7 +4630,7 @@
         <v>1978.0</v>
       </c>
       <c r="E251" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
     </row>
     <row r="252">
@@ -4404,7 +4647,7 @@
         <v>1979.0</v>
       </c>
       <c r="E252" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
     </row>
     <row r="253">
@@ -4421,7 +4664,7 @@
         <v>1980.0</v>
       </c>
       <c r="E253" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
     </row>
     <row r="254">
@@ -4438,7 +4681,7 @@
         <v>1981.0</v>
       </c>
       <c r="E254" t="s">
-        <v>7</v>
+        <v>77</v>
       </c>
     </row>
     <row r="255">
@@ -4455,7 +4698,7 @@
         <v>1982.0</v>
       </c>
       <c r="E255" t="s">
-        <v>7</v>
+        <v>77</v>
       </c>
     </row>
     <row r="256">
@@ -4472,7 +4715,7 @@
         <v>1983.0</v>
       </c>
       <c r="E256" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
     </row>
     <row r="257">
@@ -4489,7 +4732,7 @@
         <v>1984.0</v>
       </c>
       <c r="E257" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
     </row>
     <row r="258">
@@ -4506,7 +4749,7 @@
         <v>1985.0</v>
       </c>
       <c r="E258" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
     </row>
     <row r="259">
@@ -4523,7 +4766,7 @@
         <v>1986.0</v>
       </c>
       <c r="E259" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="260">
@@ -4540,7 +4783,7 @@
         <v>1987.0</v>
       </c>
       <c r="E260" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="261">
@@ -4557,7 +4800,7 @@
         <v>1988.0</v>
       </c>
       <c r="E261" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
     </row>
     <row r="262">
@@ -4574,7 +4817,7 @@
         <v>1989.0</v>
       </c>
       <c r="E262" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
     </row>
     <row r="263">
@@ -4591,7 +4834,7 @@
         <v>1990.0</v>
       </c>
       <c r="E263" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="264">
@@ -4608,7 +4851,7 @@
         <v>1991.0</v>
       </c>
       <c r="E264" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
     </row>
     <row r="265">
@@ -4625,7 +4868,7 @@
         <v>1992.0</v>
       </c>
       <c r="E265" t="s">
-        <v>7</v>
+        <v>79</v>
       </c>
     </row>
     <row r="266">
@@ -4642,7 +4885,7 @@
         <v>1993.0</v>
       </c>
       <c r="E266" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="267">
@@ -4659,7 +4902,7 @@
         <v>1994.0</v>
       </c>
       <c r="E267" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
     </row>
     <row r="268">
@@ -4676,7 +4919,7 @@
         <v>1995.0</v>
       </c>
       <c r="E268" t="s">
-        <v>7</v>
+        <v>81</v>
       </c>
     </row>
     <row r="269">
@@ -4693,7 +4936,7 @@
         <v>1996.0</v>
       </c>
       <c r="E269" t="s">
-        <v>7</v>
+        <v>82</v>
       </c>
     </row>
     <row r="270">
@@ -4710,7 +4953,7 @@
         <v>1997.0</v>
       </c>
       <c r="E270" t="s">
-        <v>7</v>
+        <v>83</v>
       </c>
     </row>
     <row r="271">
@@ -4727,7 +4970,7 @@
         <v>1998.0</v>
       </c>
       <c r="E271" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
     </row>
     <row r="272">
@@ -4744,7 +4987,7 @@
         <v>1999.0</v>
       </c>
       <c r="E272" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="273">
@@ -4761,7 +5004,7 @@
         <v>2000.0</v>
       </c>
       <c r="E273" t="s">
-        <v>7</v>
+        <v>86</v>
       </c>
     </row>
     <row r="274">
@@ -4778,7 +5021,7 @@
         <v>2001.0</v>
       </c>
       <c r="E274" t="s">
-        <v>7</v>
+        <v>87</v>
       </c>
     </row>
     <row r="275">
@@ -4795,7 +5038,7 @@
         <v>2002.0</v>
       </c>
       <c r="E275" t="s">
-        <v>7</v>
+        <v>88</v>
       </c>
     </row>
     <row r="276">
@@ -4983,50 +5226,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>89</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
